--- a/Documents/RequirementsDocuments/Other/DOC0001-.xlsx
+++ b/Documents/RequirementsDocuments/Other/DOC0001-.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\School\YEAR 6\SEMESTER 1\4TA6\Requirements Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\School\YEAR 6\SEMESTER 1\4TA6\Requirements Documents\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Front Page" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
   <si>
     <t>DOC0000</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>SRD0025</t>
+  </si>
+  <si>
+    <t>Proof of Concept Test Report Document</t>
   </si>
 </sst>
 </file>
@@ -599,6 +602,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,59 +671,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,43 +997,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="30" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="31"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
@@ -1044,30 +1047,30 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="2:10" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="2:10" ht="36.6" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
@@ -1081,153 +1084,148 @@
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="I2:J4"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="B6:J6"/>
@@ -1239,6 +1237,11 @@
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="I2:J4"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1459,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1504,6 +1507,12 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1800,168 +1809,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="37" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="37" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="37"/>
+    <col min="1" max="1" width="12.77734375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="14" t="s">
         <v>114</v>
       </c>
     </row>
